--- a/Teamwork-Personal-Skills-Course-Program-May-2015.xlsx
+++ b/Teamwork-Personal-Skills-Course-Program-May-2015.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" tabRatio="272"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="272"/>
   </bookViews>
   <sheets>
     <sheet name="Teamwork and Personal Program" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Lecture</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>SoftUni Team</t>
+  </si>
+  <si>
+    <t>Promo</t>
+  </si>
+  <si>
+    <t>ne znam si kvo</t>
   </si>
 </sst>
 </file>
@@ -241,7 +247,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -254,7 +260,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="164" formatCode="dd\-mmm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -264,7 +270,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="164" formatCode="dd\-mmm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -380,9 +386,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office тема">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Оffice">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -420,9 +426,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Оffice">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +463,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,7 +498,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Оffice">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -666,26 +672,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="64" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.21875" style="1"/>
+    <col min="4" max="4" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -711,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -735,7 +741,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -762,7 +768,7 @@
         <v>42144</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -790,7 +796,7 @@
         <v>42151</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -818,7 +824,7 @@
         <v>42158</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -842,7 +848,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -869,7 +875,7 @@
         <v>42256</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -897,7 +903,7 @@
         <v>42263</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -922,7 +928,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -947,7 +953,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -972,7 +978,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -998,6 +1004,17 @@
       <c r="H12" s="10">
         <f>Table13[[#This Row],[Date]]+13</f>
         <v>42291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
